--- a/Controle Automacao Oneclick.xlsx
+++ b/Controle Automacao Oneclick.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26322"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://noesisprt-my.sharepoint.com/personal/pedro_h_silva_noesis_pt/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A1EC139-0748-4970-BC5E-12ED984DCB3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{88FA75B1-A26F-45A2-B4AB-A48FDB3244CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="1" xr2:uid="{FB62629B-8788-4540-8C76-2AB047EF9138}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="2" xr2:uid="{FB62629B-8788-4540-8C76-2AB047EF9138}"/>
   </bookViews>
   <sheets>
     <sheet name="Cenários" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="182">
   <si>
     <t>CENÁRIO</t>
   </si>
@@ -70,6 +70,9 @@
     <t>Observação Manut. V2</t>
   </si>
   <si>
+    <t>Tempo Execução</t>
+  </si>
+  <si>
     <t>154145 [Institucional ] Validar Acesso a opção "Avisar um Sinistro"</t>
   </si>
   <si>
@@ -166,6 +169,9 @@
     <t>http://tfs:8080/tfs/WebSystem/POB.Quality/_testManagement/runs?runId=335428&amp;_a=resultQuery</t>
   </si>
   <si>
+    <t>?</t>
+  </si>
+  <si>
     <t>335429 Validar mensagem de combinação de coberturas não permitida quando somatório de capitais segurados entre coberturas básicas e opcionais é acima de R$ 100 milhões  - VIDA INTEIRA + TEMPORÁRIO    </t>
   </si>
   <si>
@@ -502,6 +508,12 @@
     <t>330904 - Validar alteração de capital segurado máximo para cobertura opicional DOENÇAS GRAVES PLUS POR 5 ANOS G</t>
   </si>
   <si>
+    <t>http://tfs:8080/tfs/WebSystem/POB.Quality/_testManagement/runs?runId=328730&amp;_a=resultQuery</t>
+  </si>
+  <si>
+    <t>Os valor esperado no TFS é 2.000.000,00. Porém o retornado na aplicação é R$ 120.000,00.</t>
+  </si>
+  <si>
     <t>330905 - Validar alteração de capital segurado máximo para cobertura opicional TEMPORÁRIO POR 5 ANOS G</t>
   </si>
   <si>
@@ -518,6 +530,63 @@
   </si>
   <si>
     <t>330918 - Validar finalização de proposta com capital segurado máximo para produto VIDA INTEIRA ATE 10 ANOS G</t>
+  </si>
+  <si>
+    <t>340486 - Validar lista de 3 propostas com status EM PREENCHIMENTO na central de Propostas - Filtro de Pesquisa</t>
+  </si>
+  <si>
+    <t>http://tfs:8080/tfs/WebSystem/POB.Quality/_testManagement/runs?runId=329106&amp;_a=resultQuery</t>
+  </si>
+  <si>
+    <t>350151 - Validar Acesso à Gestão de Propostas via menu principal - Gestão de Propostas</t>
+  </si>
+  <si>
+    <t>http://tfs:8080/tfs/WebSystem/POB.Quality/_testManagement/runs?runId=329268&amp;_a=resultQuery</t>
+  </si>
+  <si>
+    <t>354440 - Validar mensagem de crítica do sistema ao informar data de expedição de documento menor que a data de nascimento do segurado - Segurado</t>
+  </si>
+  <si>
+    <t>http://tfs:8080/tfs/WebSystem/Pob.Quality/_testManagement/runs?runID=329250&amp;_a=runCharts</t>
+  </si>
+  <si>
+    <t>354529 - Validar tokenização de cartão de crédito VISA - Nova Proposta - Pagamento</t>
+  </si>
+  <si>
+    <t>http://tfs:8080/tfs/WebSystem/Pob.Quality/_testManagement/runs?runID=329093&amp;_a=resultSummary&amp;resultId=100000</t>
+  </si>
+  <si>
+    <t>354549 - Validar tokenização de cartão de crédito MASTERCARD - Nova Proposta - Pagamento</t>
+  </si>
+  <si>
+    <t>http://tfs:8080/tfs/WebSystem/POB.Quality/_testManagement/runs?runId=329109&amp;_a=resultQuery</t>
+  </si>
+  <si>
+    <t>354568 - Validar tokenização de cartão de crédito AMEX - Nova Proposta - Pagamento</t>
+  </si>
+  <si>
+    <t>http://tfs:8080/tfs/WebSystem/Pob.Quality/_testManagement/runs?runID=329111&amp;_a=resultSummary&amp;resultId=100000</t>
+  </si>
+  <si>
+    <t>354573 - Validar tokenização de cartão de crédito ELO - Nova Proposta - Pagamento</t>
+  </si>
+  <si>
+    <t>http://tfs:8080/tfs/WebSystem/Pob.Quality/_testManagement/runs?runID=329071&amp;_a=resultSummary&amp;resultId=100000</t>
+  </si>
+  <si>
+    <t>355063 - Validar transmissão de Proposta Eletrônica com PIX como Forma de Pagamento da Antecipação do Primeiro Prêmio - Pagamento</t>
+  </si>
+  <si>
+    <t>355261 - Validar prêmio não cobrado após transmição  de proposta eltrônica no OneClick - Pagamento</t>
+  </si>
+  <si>
+    <t>http://tfs:8080/tfs/WebSystem/POB.Quality/_testManagement/runs?runId=329257&amp;_a=resultQuery#runId=329257&amp;_a=resultQuery</t>
+  </si>
+  <si>
+    <t>355387 - Validar prêmio cobrado após transmição  de proposta eltrônica no OneClick - Pagamento</t>
+  </si>
+  <si>
+    <t>http://tfs:8080/tfs/WebSystem/POB.Quality/_testManagement/runs?runId=329244&amp;_a=resultQuery#runId=329244&amp;_a=resultQuery</t>
   </si>
 </sst>
 </file>
@@ -561,7 +630,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -571,6 +640,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -588,7 +663,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -607,6 +682,8 @@
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -626,15 +703,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{09E887D6-E5F9-4B61-8A83-FA124D8A2E62}" name="Tabela2" displayName="Tabela2" ref="A1:I43" totalsRowShown="0">
-  <autoFilter ref="A1:I43" xr:uid="{09E887D6-E5F9-4B61-8A83-FA124D8A2E62}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{09E887D6-E5F9-4B61-8A83-FA124D8A2E62}" name="Tabela2" displayName="Tabela2" ref="A1:J44" totalsRowCount="1">
+  <autoFilter ref="A1:J43" xr:uid="{09E887D6-E5F9-4B61-8A83-FA124D8A2E62}">
     <filterColumn colId="1">
       <filters>
         <filter val="Construído"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <tableColumns count="9">
+  <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{A53CB8DE-0635-4465-8B13-697EB89918D2}" name="CENÁRIO"/>
     <tableColumn id="2" xr3:uid="{D72F23C2-8863-449F-A32E-D356876369F8}" name="Status"/>
     <tableColumn id="3" xr3:uid="{5E828E14-9A5B-4357-B593-5D7AD4A499F5}" name="Debugado?"/>
@@ -644,20 +721,17 @@
     <tableColumn id="5" xr3:uid="{9AA41D8D-3186-4BA3-8F94-90AE4A89F035}" name="Observação Manut v1"/>
     <tableColumn id="7" xr3:uid="{248C7127-C00B-4DF4-84AA-4678F5A1B91E}" name="Manut. V2"/>
     <tableColumn id="9" xr3:uid="{6699D50D-4727-4A33-A12B-57FD48882567}" name="Observação Manut. V2"/>
+    <tableColumn id="10" xr3:uid="{180EBDD8-EBFA-4EE3-A6F8-A87EDE0A2A51}" name="Tempo Execução" totalsRowFunction="custom">
+      <totalsRowFormula>AVERAGE(J2:J32)</totalsRowFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3400BD1C-3B67-49FF-938C-65371208EFD5}" name="Tabela22" displayName="Tabela22" ref="A1:I43" totalsRowShown="0">
-  <autoFilter ref="A1:I43" xr:uid="{3400BD1C-3B67-49FF-938C-65371208EFD5}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Construído"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3400BD1C-3B67-49FF-938C-65371208EFD5}" name="Tabela22" displayName="Tabela22" ref="A1:I53" totalsRowShown="0">
+  <autoFilter ref="A1:I53" xr:uid="{3400BD1C-3B67-49FF-938C-65371208EFD5}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{7BA2D06E-00EB-41FE-98DB-88C523860AE7}" name="CENÁRIO"/>
     <tableColumn id="2" xr3:uid="{FBABD3B7-E493-4C57-88FA-3F288B777A6F}" name="Status"/>
@@ -970,15 +1044,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BFF0FAA-12D1-4E3A-B051-D19B4B2AD8C2}">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="138.42578125" customWidth="1"/>
+    <col min="1" max="1" width="188.5703125" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
     <col min="3" max="3" width="14.140625" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
@@ -989,7 +1063,7 @@
     <col min="9" max="9" width="35.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1017,956 +1091,1058 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>14</v>
+      </c>
+      <c r="J2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>45</v>
+      </c>
+      <c r="J15">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>45</v>
+      </c>
+      <c r="J16">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>45</v>
+      </c>
+      <c r="J17">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J18">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>45</v>
+      </c>
+      <c r="J19">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" t="s">
+        <v>45</v>
+      </c>
+      <c r="J20">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" t="s">
+        <v>45</v>
+      </c>
+      <c r="J21">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" t="s">
+        <v>45</v>
+      </c>
+      <c r="J22">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" t="s">
+        <v>45</v>
+      </c>
+      <c r="J23">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>45</v>
+      </c>
+      <c r="J24">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" t="s">
+        <v>67</v>
+      </c>
+      <c r="J25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" t="s">
+        <v>67</v>
+      </c>
+      <c r="J26">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>34</v>
+      </c>
+      <c r="J27">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>34</v>
+      </c>
+      <c r="J28">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>34</v>
+      </c>
+      <c r="J29">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" t="s">
+        <v>33</v>
+      </c>
+      <c r="H30" t="s">
+        <v>45</v>
+      </c>
+      <c r="J30">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" t="s">
+        <v>45</v>
+      </c>
+      <c r="J31">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" t="s">
+        <v>45</v>
+      </c>
+      <c r="J32">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" t="s">
+        <v>66</v>
+      </c>
+      <c r="E33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" t="s">
+        <v>45</v>
+      </c>
+      <c r="G33" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" t="s">
+        <v>66</v>
+      </c>
+      <c r="E34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" t="s">
+        <v>45</v>
+      </c>
+      <c r="G34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" t="s">
+        <v>83</v>
+      </c>
+      <c r="B35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" t="s">
+        <v>66</v>
+      </c>
+      <c r="E35" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" t="s">
+        <v>45</v>
+      </c>
+      <c r="G35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" t="s">
+        <v>66</v>
+      </c>
+      <c r="E36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" t="s">
+        <v>45</v>
+      </c>
+      <c r="G36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" t="s">
+        <v>66</v>
+      </c>
+      <c r="E37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" t="s">
+        <v>21</v>
+      </c>
+      <c r="G37" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" t="s">
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" t="s">
+        <v>66</v>
+      </c>
+      <c r="E38" t="s">
+        <v>45</v>
+      </c>
+      <c r="F38" t="s">
+        <v>45</v>
+      </c>
+      <c r="G38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" t="s">
+        <v>66</v>
+      </c>
+      <c r="E39" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="G39" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" t="s">
+        <v>66</v>
+      </c>
+      <c r="E40" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="F40" t="s">
         <v>33</v>
       </c>
-      <c r="H13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" t="s">
-        <v>43</v>
-      </c>
-      <c r="H16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" t="s">
-        <v>43</v>
-      </c>
-      <c r="H17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" t="s">
-        <v>43</v>
-      </c>
-      <c r="F19" t="s">
-        <v>43</v>
-      </c>
-      <c r="H19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" t="s">
-        <v>20</v>
-      </c>
-      <c r="H21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" t="s">
-        <v>20</v>
-      </c>
-      <c r="H22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" t="s">
-        <v>58</v>
-      </c>
-      <c r="B23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E23" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" t="s">
-        <v>20</v>
-      </c>
-      <c r="H23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E24" t="s">
-        <v>43</v>
-      </c>
-      <c r="F24" t="s">
-        <v>43</v>
-      </c>
-      <c r="G24" t="s">
-        <v>43</v>
-      </c>
-      <c r="H24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" hidden="1">
-      <c r="A25" t="s">
-        <v>62</v>
-      </c>
-      <c r="B25" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" t="s">
-        <v>64</v>
-      </c>
-      <c r="E25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="H40" t="s">
+        <v>45</v>
+      </c>
+      <c r="I40" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" hidden="1">
-      <c r="A26" t="s">
+      <c r="C41" t="s">
         <v>66</v>
       </c>
-      <c r="B26" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" t="s">
-        <v>64</v>
-      </c>
-      <c r="E26" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" t="s">
+      <c r="E41" t="s">
+        <v>45</v>
+      </c>
+      <c r="F41" t="s">
+        <v>45</v>
+      </c>
+      <c r="G41" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B42" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" t="s">
-        <v>67</v>
-      </c>
-      <c r="B27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E27" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" t="s">
-        <v>43</v>
-      </c>
-      <c r="H27" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" t="s">
-        <v>69</v>
-      </c>
-      <c r="B28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E28" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" t="s">
-        <v>43</v>
-      </c>
-      <c r="H28" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" t="s">
-        <v>71</v>
-      </c>
-      <c r="B29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E29" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" t="s">
-        <v>43</v>
-      </c>
-      <c r="H29" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" t="s">
-        <v>73</v>
-      </c>
-      <c r="B30" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E30" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" t="s">
-        <v>32</v>
-      </c>
-      <c r="H30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" t="s">
-        <v>75</v>
-      </c>
-      <c r="B31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E31" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" t="s">
-        <v>20</v>
-      </c>
-      <c r="H31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" t="s">
-        <v>77</v>
-      </c>
-      <c r="B32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E32" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" t="s">
-        <v>20</v>
-      </c>
-      <c r="H32" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" hidden="1">
-      <c r="A33" t="s">
-        <v>79</v>
-      </c>
-      <c r="B33" t="s">
-        <v>63</v>
-      </c>
-      <c r="C33" t="s">
-        <v>64</v>
-      </c>
-      <c r="E33" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33" t="s">
-        <v>43</v>
-      </c>
-      <c r="G33" t="s">
+      <c r="C42" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" t="s">
+        <v>45</v>
+      </c>
+      <c r="F42" t="s">
+        <v>45</v>
+      </c>
+      <c r="G42" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B43" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" hidden="1">
-      <c r="A34" t="s">
-        <v>80</v>
-      </c>
-      <c r="B34" t="s">
-        <v>63</v>
-      </c>
-      <c r="C34" t="s">
-        <v>64</v>
-      </c>
-      <c r="E34" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34" t="s">
-        <v>43</v>
-      </c>
-      <c r="G34" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" hidden="1">
-      <c r="A35" t="s">
-        <v>81</v>
-      </c>
-      <c r="B35" t="s">
-        <v>63</v>
-      </c>
-      <c r="C35" t="s">
-        <v>64</v>
-      </c>
-      <c r="E35" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" t="s">
-        <v>43</v>
-      </c>
-      <c r="G35" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" hidden="1">
-      <c r="A36" t="s">
-        <v>82</v>
-      </c>
-      <c r="B36" t="s">
-        <v>63</v>
-      </c>
-      <c r="C36" t="s">
-        <v>64</v>
-      </c>
-      <c r="E36" t="s">
-        <v>13</v>
-      </c>
-      <c r="F36" t="s">
-        <v>43</v>
-      </c>
-      <c r="G36" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" hidden="1">
-      <c r="A37" t="s">
-        <v>83</v>
-      </c>
-      <c r="B37" t="s">
-        <v>63</v>
-      </c>
-      <c r="C37" t="s">
-        <v>64</v>
-      </c>
-      <c r="E37" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" t="s">
-        <v>20</v>
-      </c>
-      <c r="G37" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" hidden="1">
-      <c r="A38" t="s">
-        <v>84</v>
-      </c>
-      <c r="B38" t="s">
-        <v>63</v>
-      </c>
-      <c r="C38" t="s">
-        <v>64</v>
-      </c>
-      <c r="E38" t="s">
-        <v>43</v>
-      </c>
-      <c r="F38" t="s">
-        <v>43</v>
-      </c>
-      <c r="G38" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" hidden="1">
-      <c r="A39" t="s">
-        <v>85</v>
-      </c>
-      <c r="B39" t="s">
-        <v>63</v>
-      </c>
-      <c r="C39" t="s">
-        <v>64</v>
-      </c>
-      <c r="E39" t="s">
-        <v>32</v>
-      </c>
-      <c r="G39" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" hidden="1">
-      <c r="A40" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B40" t="s">
-        <v>63</v>
-      </c>
-      <c r="C40" t="s">
-        <v>64</v>
-      </c>
-      <c r="E40" t="s">
-        <v>32</v>
-      </c>
-      <c r="F40" t="s">
-        <v>32</v>
-      </c>
-      <c r="H40" t="s">
-        <v>43</v>
-      </c>
-      <c r="I40" t="s">
+      <c r="C43" t="s">
+        <v>66</v>
+      </c>
+      <c r="E43" t="s">
+        <v>45</v>
+      </c>
+      <c r="F43" t="s">
+        <v>45</v>
+      </c>
+      <c r="G43" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="1:9" hidden="1">
-      <c r="A41" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B41" t="s">
-        <v>63</v>
-      </c>
-      <c r="C41" t="s">
-        <v>64</v>
-      </c>
-      <c r="E41" t="s">
-        <v>43</v>
-      </c>
-      <c r="F41" t="s">
-        <v>43</v>
-      </c>
-      <c r="G41" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" hidden="1">
-      <c r="A42" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B42" t="s">
-        <v>63</v>
-      </c>
-      <c r="C42" t="s">
-        <v>64</v>
-      </c>
-      <c r="E42" t="s">
-        <v>43</v>
-      </c>
-      <c r="F42" t="s">
-        <v>43</v>
-      </c>
-      <c r="G42" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" hidden="1">
-      <c r="A43" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B43" t="s">
-        <v>63</v>
-      </c>
-      <c r="C43" t="s">
-        <v>64</v>
-      </c>
-      <c r="E43" t="s">
-        <v>43</v>
-      </c>
-      <c r="F43" t="s">
-        <v>43</v>
-      </c>
-      <c r="G43" t="s">
-        <v>86</v>
+    <row r="44" spans="1:10">
+      <c r="J44">
+        <f>AVERAGE(J2:J32)</f>
+        <v>132.30000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -2039,8 +2215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D826D9CC-0481-4195-B128-A786052C83F3}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2060,72 +2236,71 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="E14" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F14">
         <v>17</v>
       </c>
       <c r="G14">
         <f>F14+F15</f>
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="E15" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F15">
-        <f>29+19</f>
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="E16" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F16">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2135,10 +2310,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C2BBE56-4282-47D2-9AD0-0AD26B5FCB7E}">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:B38"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2185,779 +2360,1000 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="4" t="s">
-        <v>110</v>
+      <c r="A7" s="11" t="s">
+        <v>112</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>111</v>
-      </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" hidden="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" hidden="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:9" hidden="1">
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I18" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" hidden="1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I19" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" hidden="1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I20" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" hidden="1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C21" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I21" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" hidden="1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" hidden="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="D27" s="3"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G28" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H28" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G29" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H29" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I29" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" hidden="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G31" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H31" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="6" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G32" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H32" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G33" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H33" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G34" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H34" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G35" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H35" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G36" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H36" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" hidden="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="E37" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H37" t="s">
-        <v>109</v>
+        <v>111</v>
+      </c>
+      <c r="I37" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E38" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H38" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" hidden="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G39" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H39" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" hidden="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="8" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B40" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="C40" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E40" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H40" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" hidden="1">
+        <v>21</v>
+      </c>
+      <c r="I40" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="8" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B41" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="C41" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E41" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H41" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" hidden="1">
+        <v>33</v>
+      </c>
+      <c r="I41" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="2"/>
     </row>
-    <row r="43" spans="1:9" hidden="1">
-      <c r="A43" s="2"/>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>163</v>
+      </c>
+      <c r="B43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E43" t="s">
+        <v>111</v>
+      </c>
+      <c r="H43" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
+        <v>165</v>
+      </c>
+      <c r="B44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E44" t="s">
+        <v>111</v>
+      </c>
+      <c r="H44" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
+        <v>167</v>
+      </c>
+      <c r="B45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E45" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
+        <v>169</v>
+      </c>
+      <c r="B46" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E46" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" t="s">
+        <v>171</v>
+      </c>
+      <c r="B47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E47" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" t="s">
+        <v>173</v>
+      </c>
+      <c r="B48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E48" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="B49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" t="s">
+        <v>177</v>
+      </c>
+      <c r="B50" t="s">
+        <v>65</v>
+      </c>
+      <c r="C50" t="s">
+        <v>66</v>
+      </c>
+      <c r="E50" t="s">
+        <v>45</v>
+      </c>
+      <c r="F50" t="s">
+        <v>45</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>45</v>
+      </c>
+      <c r="I50" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" t="s">
+        <v>178</v>
+      </c>
+      <c r="B51" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E51" t="s">
+        <v>45</v>
+      </c>
+      <c r="F51" t="s">
+        <v>45</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>45</v>
+      </c>
+      <c r="I51" s="9"/>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" t="s">
+        <v>180</v>
+      </c>
+      <c r="B52" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E52" t="s">
+        <v>45</v>
+      </c>
+      <c r="F52" t="s">
+        <v>45</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="F53" t="s">
+        <v>45</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2989,10 +3385,20 @@
     <hyperlink ref="D35" r:id="rId26" location="runId=328667&amp;_a=resultQuery" xr:uid="{4B8D98CC-AE02-440B-AC0A-820C260B2A2D}"/>
     <hyperlink ref="D36" r:id="rId27" location="runId=328677&amp;_a=resultQuery" xr:uid="{34D16AAA-F22D-4D55-837D-FBF584E856AC}"/>
     <hyperlink ref="D39" r:id="rId28" location="runId=328699&amp;_a=resultQuery" xr:uid="{F81D930E-4AAE-4E1C-826A-D732DD0FE973}"/>
+    <hyperlink ref="D37" r:id="rId29" xr:uid="{CFFA5A75-4EE7-4B58-A9A2-D2FF5EEECEDB}"/>
+    <hyperlink ref="D49" r:id="rId30" xr:uid="{00C1CA98-DB43-43C5-88F0-ABF183FA593E}"/>
+    <hyperlink ref="D46" r:id="rId31" xr:uid="{AAA73599-B4EF-4720-98A4-7A5AFAD68B08}"/>
+    <hyperlink ref="D43" r:id="rId32" xr:uid="{F25F94B3-247A-44A9-B440-B0E2A70FBC05}"/>
+    <hyperlink ref="D47" r:id="rId33" xr:uid="{DD0553AB-A4E8-4AC9-A49B-7B4D49984DC5}"/>
+    <hyperlink ref="D48" r:id="rId34" xr:uid="{981BD621-A1FD-4199-91D9-704B67114E1A}"/>
+    <hyperlink ref="D52" r:id="rId35" location="runId=329244&amp;_a=resultQuery" xr:uid="{5DEB247A-56F2-4CFE-8DA7-FBF7D0F70C20}"/>
+    <hyperlink ref="D45" r:id="rId36" xr:uid="{994E4B21-13BC-4777-B265-68D4F1A8FCCC}"/>
+    <hyperlink ref="D51" r:id="rId37" location="runId=329257&amp;_a=resultQuery" xr:uid="{19C287BE-52D8-43FE-BEF4-3AD5D222C6E8}"/>
+    <hyperlink ref="D44" r:id="rId38" xr:uid="{CB9DB118-FAA3-483C-8FA4-EFF60062FA54}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId29"/>
+    <tablePart r:id="rId39"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -3001,13 +3407,13 @@
           <x14:formula1>
             <xm:f>Valores!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C43</xm:sqref>
+          <xm:sqref>C2:C53</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BFB46648-8CEA-4DAC-B8BC-0DE6A6CDCCB4}">
           <x14:formula1>
             <xm:f>Valores!$A$2:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B43</xm:sqref>
+          <xm:sqref>B2:B53</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
